--- a/media/item33.xlsx
+++ b/media/item33.xlsx
@@ -119,6 +119,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -207,7 +208,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -288,7 +289,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>4</v>
@@ -303,13 +304,13 @@
         <v>21</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>34</v>
+        <v>-34</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>89</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>24</v>
       </c>
